--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf15-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf15-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf15</t>
+  </si>
+  <si>
+    <t>Fgfr4</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf15</t>
-  </si>
-  <si>
-    <t>Fgfr4</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H2">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I2">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J2">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N2">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q2">
-        <v>0.001892310423333333</v>
+        <v>0.027742736461</v>
       </c>
       <c r="R2">
-        <v>0.01703079381</v>
+        <v>0.249684628149</v>
       </c>
       <c r="S2">
-        <v>0.0001180934653208263</v>
+        <v>0.001590476157321515</v>
       </c>
       <c r="T2">
-        <v>0.0001180934653208262</v>
+        <v>0.001590476157321516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H3">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I3">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J3">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.273934</v>
       </c>
       <c r="O3">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P3">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q3">
-        <v>0.003334994264444445</v>
+        <v>0.006921490378000002</v>
       </c>
       <c r="R3">
-        <v>0.03001494838</v>
+        <v>0.06229341340200001</v>
       </c>
       <c r="S3">
-        <v>0.0002081270729458688</v>
+        <v>0.0003968053200092461</v>
       </c>
       <c r="T3">
-        <v>0.0002081270729458688</v>
+        <v>0.0003968053200092461</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H4">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I4">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J4">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N4">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q4">
-        <v>1.831428108496667</v>
+        <v>4.085453091687</v>
       </c>
       <c r="R4">
-        <v>16.48285297647</v>
+        <v>36.769077825183</v>
       </c>
       <c r="S4">
-        <v>0.1142939811309381</v>
+        <v>0.2342168280089493</v>
       </c>
       <c r="T4">
-        <v>0.1142939811309381</v>
+        <v>0.2342168280089494</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H5">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I5">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J5">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N5">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O5">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P5">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q5">
-        <v>0.001547359714444444</v>
+        <v>0.004551597380000001</v>
       </c>
       <c r="R5">
-        <v>0.01392623743</v>
+        <v>0.04096437642000001</v>
       </c>
       <c r="S5">
-        <v>9.656611754782896E-05</v>
+        <v>0.0002609406292992676</v>
       </c>
       <c r="T5">
-        <v>9.656611754782893E-05</v>
+        <v>0.0002609406292992677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>0.399987</v>
       </c>
       <c r="I6">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J6">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N6">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O6">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P6">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q6">
-        <v>0.006907908819</v>
+        <v>0.048797658469</v>
       </c>
       <c r="R6">
-        <v>0.06217117937099999</v>
+        <v>0.439178926221</v>
       </c>
       <c r="S6">
-        <v>0.0004311020435637614</v>
+        <v>0.002797543509709902</v>
       </c>
       <c r="T6">
-        <v>0.0004311020435637613</v>
+        <v>0.002797543509709902</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>0.399987</v>
       </c>
       <c r="I7">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J7">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.273934</v>
       </c>
       <c r="O7">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P7">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q7">
         <v>0.012174448762</v>
@@ -883,10 +883,10 @@
         <v>0.109570038858</v>
       </c>
       <c r="S7">
-        <v>0.0007597711374135186</v>
+        <v>0.0006979545983761793</v>
       </c>
       <c r="T7">
-        <v>0.0007597711374135183</v>
+        <v>0.0006979545983761793</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>0.399987</v>
       </c>
       <c r="I8">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J8">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N8">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O8">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P8">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q8">
-        <v>6.685656975753001</v>
+        <v>7.186044712623</v>
       </c>
       <c r="R8">
-        <v>60.170912781777</v>
+        <v>64.674402413607</v>
       </c>
       <c r="S8">
-        <v>0.417231967058689</v>
+        <v>0.411972077698252</v>
       </c>
       <c r="T8">
-        <v>0.4172319670586889</v>
+        <v>0.4119720776982521</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,40 +977,40 @@
         <v>0.399987</v>
       </c>
       <c r="I9">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J9">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N9">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O9">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P9">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q9">
-        <v>0.005648660857</v>
+        <v>0.00800596202</v>
       </c>
       <c r="R9">
-        <v>0.05083794771299999</v>
+        <v>0.07205365818000001</v>
       </c>
       <c r="S9">
-        <v>0.000352516123570352</v>
+        <v>0.0004589774958620869</v>
       </c>
       <c r="T9">
-        <v>0.0003525161235703518</v>
+        <v>0.000458977495862087</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.111429</v>
+      </c>
+      <c r="H10">
+        <v>0.334287</v>
+      </c>
+      <c r="I10">
+        <v>0.3476083965822204</v>
+      </c>
+      <c r="J10">
+        <v>0.3476083965822204</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.110769</v>
-      </c>
-      <c r="H10">
-        <v>0.332307</v>
-      </c>
-      <c r="I10">
-        <v>0.3479162631460475</v>
-      </c>
-      <c r="J10">
-        <v>0.3479162631460474</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M10">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N10">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O10">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P10">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q10">
-        <v>0.005739052659</v>
+        <v>0.040782382569</v>
       </c>
       <c r="R10">
-        <v>0.051651473931</v>
+        <v>0.367041443121</v>
       </c>
       <c r="S10">
-        <v>0.0003581572070855875</v>
+        <v>0.002338032054117744</v>
       </c>
       <c r="T10">
-        <v>0.0003581572070855873</v>
+        <v>0.002338032054117744</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.110769</v>
+        <v>0.111429</v>
       </c>
       <c r="H11">
-        <v>0.332307</v>
+        <v>0.334287</v>
       </c>
       <c r="I11">
-        <v>0.3479162631460475</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J11">
-        <v>0.3479162631460474</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.273934</v>
       </c>
       <c r="O11">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P11">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q11">
-        <v>0.010114465082</v>
+        <v>0.010174730562</v>
       </c>
       <c r="R11">
-        <v>0.09103018573800001</v>
+        <v>0.091572575058</v>
       </c>
       <c r="S11">
-        <v>0.0006312136828458779</v>
+        <v>0.0005833118297029099</v>
       </c>
       <c r="T11">
-        <v>0.0006312136828458776</v>
+        <v>0.00058331182970291</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.110769</v>
+        <v>0.111429</v>
       </c>
       <c r="H12">
-        <v>0.332307</v>
+        <v>0.334287</v>
       </c>
       <c r="I12">
-        <v>0.3479162631460475</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J12">
-        <v>0.3479162631460474</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N12">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O12">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P12">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q12">
-        <v>5.554407049833001</v>
+        <v>6.005698507323</v>
       </c>
       <c r="R12">
-        <v>49.98966344849701</v>
+        <v>54.051286565907</v>
       </c>
       <c r="S12">
-        <v>0.3466340237992029</v>
+        <v>0.3443034647063918</v>
       </c>
       <c r="T12">
-        <v>0.3466340237992028</v>
+        <v>0.3443034647063919</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,309 +1204,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.111429</v>
+      </c>
+      <c r="H13">
+        <v>0.334287</v>
+      </c>
+      <c r="I13">
+        <v>0.3476083965822204</v>
+      </c>
+      <c r="J13">
+        <v>0.3476083965822204</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.110769</v>
-      </c>
-      <c r="H13">
-        <v>0.332307</v>
-      </c>
-      <c r="I13">
-        <v>0.3479162631460475</v>
-      </c>
-      <c r="J13">
-        <v>0.3479162631460474</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M13">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N13">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O13">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P13">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q13">
-        <v>0.004692876377</v>
+        <v>0.00669094002</v>
       </c>
       <c r="R13">
-        <v>0.042235887393</v>
+        <v>0.06021846018000001</v>
       </c>
       <c r="S13">
-        <v>0.000292868456913082</v>
+        <v>0.0003835879920078638</v>
       </c>
       <c r="T13">
-        <v>0.000292868456913082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.113271</v>
-      </c>
-      <c r="I14">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J14">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.051811</v>
-      </c>
-      <c r="N14">
-        <v>0.155433</v>
-      </c>
-      <c r="O14">
-        <v>0.001029435082588367</v>
-      </c>
-      <c r="P14">
-        <v>0.001029435082588367</v>
-      </c>
-      <c r="Q14">
-        <v>0.001956227927</v>
-      </c>
-      <c r="R14">
-        <v>0.017606051343</v>
-      </c>
-      <c r="S14">
-        <v>0.0001220823666181921</v>
-      </c>
-      <c r="T14">
-        <v>0.0001220823666181921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.113271</v>
-      </c>
-      <c r="I15">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J15">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.09131133333333334</v>
-      </c>
-      <c r="N15">
-        <v>0.273934</v>
-      </c>
-      <c r="O15">
-        <v>0.001814268977075408</v>
-      </c>
-      <c r="P15">
-        <v>0.001814268977075407</v>
-      </c>
-      <c r="Q15">
-        <v>0.003447642012666668</v>
-      </c>
-      <c r="R15">
-        <v>0.031028778114</v>
-      </c>
-      <c r="S15">
-        <v>0.0002151570838701425</v>
-      </c>
-      <c r="T15">
-        <v>0.0002151570838701424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.113271</v>
-      </c>
-      <c r="I16">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J16">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>50.144057</v>
-      </c>
-      <c r="N16">
-        <v>150.432171</v>
-      </c>
-      <c r="O16">
-        <v>0.9963145173633166</v>
-      </c>
-      <c r="P16">
-        <v>0.9963145173633166</v>
-      </c>
-      <c r="Q16">
-        <v>1.893289160149001</v>
-      </c>
-      <c r="R16">
-        <v>17.039602441341</v>
-      </c>
-      <c r="S16">
-        <v>0.1181545453744866</v>
-      </c>
-      <c r="T16">
-        <v>0.1181545453744866</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H17">
-        <v>0.113271</v>
-      </c>
-      <c r="I17">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J17">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.04236633333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.127099</v>
-      </c>
-      <c r="O17">
-        <v>0.0008417785770196733</v>
-      </c>
-      <c r="P17">
-        <v>0.0008417785770196732</v>
-      </c>
-      <c r="Q17">
-        <v>0.001599625647666667</v>
-      </c>
-      <c r="R17">
-        <v>0.014396630829</v>
-      </c>
-      <c r="S17">
-        <v>9.982787898841046E-05</v>
-      </c>
-      <c r="T17">
-        <v>9.982787898841044E-05</v>
+        <v>0.000383587992007864</v>
       </c>
     </row>
   </sheetData>
